--- a/normativa/Anexos/L01T03C08/L01T03C08A02.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A02.xlsx
@@ -710,6 +710,123 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Nota:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 1322º del Código Civil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y el Parágrafo IV del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 157° del Código Procesal Civil,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Departamento y Municipio:</t>
+  </si>
+  <si>
+    <t>OPERACIONES Y SERVICIOS FINANCIEROS A SER OFRECIDOS</t>
+  </si>
+  <si>
+    <t>Operaciones Activas y Contingentes</t>
+  </si>
+  <si>
+    <r>
+      <t>JUSTIFICACIÓN ECONÓMICO FINANCIERA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ASFI se reserva el derecho de requerir información adicional que considere pertinente así como la consideración de otros factores de tipo estratégico previo a la autorización de la apertura de la AGENCIA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(4) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> En el caso de instalación de agencias en municipios con nula cobertura, la sección referida a "justificación económico financiera" tiene un carácter más informativo que una justificación.</t>
+    </r>
+  </si>
+  <si>
+    <t>Especificación para las agencias móviles de las dimensiones del vehículo, indicando su distribución por cada área de trabajo:</t>
+  </si>
+  <si>
+    <t>Los días y horarios de atención de las agencias móviles, por departamento, municipio y localidad:</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <vertAlign val="superscript"/>
@@ -726,125 +843,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nota:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 1322º del Código Civil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> y el Parágrafo IV del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 157° del Código Procesal Civil,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   Departamento y Municipio:</t>
-  </si>
-  <si>
-    <t>OPERACIONES Y SERVICIOS FINANCIEROS A SER OFRECIDOS</t>
-  </si>
-  <si>
-    <t>Operaciones Activas y Contingentes</t>
-  </si>
-  <si>
-    <r>
-      <t>JUSTIFICACIÓN ECONÓMICO FINANCIERA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ASFI se reserva el derecho de requerir información adicional que considere pertinente así como la consideración de otros factores de tipo estratégico previo a la autorización de la apertura de la AGENCIA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(4) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> En el caso de instalación de agencias en municipios con nula cobertura, la sección referida a "justificación económico financiera" tiene un carácter más informativo que una justificación.</t>
-    </r>
-  </si>
-  <si>
-    <t>Especificación para las agencias móviles de las dimensiones del vehículo, indicando su distribución por cada área de trabajo:</t>
-  </si>
-  <si>
-    <t>Los días y horarios de atención de las agencias móviles, por departamento, municipio y localidad:</t>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1446,36 +1446,153 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1491,15 +1608,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1509,117 +1617,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1768,7 +1768,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2056,11 +2056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F20"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.5703125" style="1" customWidth="1"/>
@@ -2147,16 +2147,16 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2201,16 +2201,16 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2229,16 +2229,16 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2257,16 +2257,16 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2285,16 +2285,16 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2339,10 +2339,10 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="137"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2363,14 +2363,14 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="122"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="3"/>
@@ -2387,14 +2387,14 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="106"/>
+      <c r="A13" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="3"/>
@@ -2411,14 +2411,14 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="106"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="3"/>
@@ -2435,14 +2435,14 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="106"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="3"/>
@@ -2459,14 +2459,14 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="106"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="3"/>
@@ -2483,14 +2483,14 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="106"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="3"/>
@@ -2507,14 +2507,14 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="90"/>
       <c r="H18" s="19"/>
       <c r="I18" s="3"/>
@@ -2531,14 +2531,14 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="153" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
+      <c r="A19" s="142" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="90"/>
       <c r="H19" s="19"/>
       <c r="I19" s="3"/>
@@ -2555,14 +2555,14 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
+      <c r="A20" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="90"/>
       <c r="H20" s="19"/>
       <c r="I20" s="3"/>
@@ -2579,15 +2579,15 @@
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
+      <c r="A21" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="93"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2603,16 +2603,16 @@
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2627,15 +2627,15 @@
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="19"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2673,11 +2673,11 @@
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
+      <c r="A25" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="98"/>
       <c r="C26" s="97" t="s">
@@ -2724,15 +2724,15 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="19"/>
       <c r="I27" s="13"/>
       <c r="J27" s="3"/>
@@ -2749,15 +2749,15 @@
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
       <c r="H28" s="19"/>
       <c r="I28" s="13"/>
       <c r="J28" s="3"/>
@@ -2774,15 +2774,15 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+      <c r="A29" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="19"/>
       <c r="I29" s="13"/>
       <c r="J29" s="3"/>
@@ -2799,17 +2799,17 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="105" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="106"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="19"/>
       <c r="I30" s="13"/>
       <c r="J30" s="3"/>
@@ -2853,15 +2853,15 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="106"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
       <c r="H32" s="19"/>
       <c r="I32" s="13"/>
       <c r="J32" s="3"/>
@@ -2878,15 +2878,15 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="105" t="s">
+      <c r="A33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="106"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
       <c r="H33" s="19"/>
       <c r="I33" s="13"/>
       <c r="J33" s="3"/>
@@ -2903,15 +2903,15 @@
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="106"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
       <c r="H34" s="19"/>
       <c r="I34" s="13"/>
       <c r="J34" s="3"/>
@@ -2928,17 +2928,17 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="105" t="s">
+      <c r="B35" s="114"/>
+      <c r="C35" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="106"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="19"/>
       <c r="I35" s="13"/>
       <c r="J35" s="3"/>
@@ -2982,15 +2982,15 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="106"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
       <c r="H37" s="19"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
@@ -3007,15 +3007,15 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="106"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="114"/>
       <c r="H38" s="19"/>
       <c r="I38" s="13"/>
       <c r="J38" s="3"/>
@@ -3032,15 +3032,15 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="106"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="19"/>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
@@ -3057,17 +3057,17 @@
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="105" t="s">
+      <c r="B40" s="114"/>
+      <c r="C40" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="106"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="19"/>
       <c r="I40" s="13"/>
       <c r="J40" s="3"/>
@@ -3085,11 +3085,11 @@
     </row>
     <row r="41" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="3"/>
@@ -3130,15 +3130,15 @@
       <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="155"/>
       <c r="H43" s="19"/>
       <c r="I43" s="13"/>
       <c r="J43" s="3"/>
@@ -3188,7 +3188,7 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="111"/>
@@ -3213,7 +3213,7 @@
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="110" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="111"/>
@@ -3238,14 +3238,14 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="3"/>
@@ -3262,15 +3262,15 @@
       <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
       <c r="H48" s="14"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3298,11 +3298,11 @@
       <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
       <c r="D50" s="111"/>
       <c r="E50" s="36"/>
       <c r="F50" s="37"/>
@@ -3504,26 +3504,26 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
@@ -3551,26 +3551,26 @@
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
+      <c r="A70" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
     </row>
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="149"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -3599,16 +3599,16 @@
       <c r="H73" s="15"/>
     </row>
     <row r="74" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="125" t="s">
+      <c r="A74" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="135"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="135"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -3741,10 +3741,10 @@
       <c r="X80" s="3"/>
     </row>
     <row r="81" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="137"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -3821,10 +3821,10 @@
       <c r="X83" s="3"/>
     </row>
     <row r="84" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="137"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="B91" s="89"/>
-      <c r="C91" s="128" t="s">
+      <c r="C91" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="129"/>
+      <c r="D91" s="106"/>
       <c r="E91" s="55"/>
       <c r="F91" s="55"/>
       <c r="G91" s="55"/>
@@ -4102,10 +4102,10 @@
       <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="145" t="s">
+      <c r="A97" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="146"/>
+      <c r="B97" s="126"/>
       <c r="C97" s="58"/>
       <c r="D97" s="59"/>
       <c r="E97" s="55"/>
@@ -4129,10 +4129,10 @@
         <v>86</v>
       </c>
       <c r="B99" s="64"/>
-      <c r="C99" s="128" t="s">
+      <c r="C99" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="129"/>
+      <c r="D99" s="106"/>
       <c r="E99" s="55"/>
       <c r="F99" s="55"/>
       <c r="G99" s="55"/>
@@ -4205,10 +4205,10 @@
       <c r="I104" s="12"/>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="133" t="s">
+      <c r="A105" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="134"/>
+      <c r="B105" s="133"/>
       <c r="C105" s="58"/>
       <c r="D105" s="59"/>
       <c r="E105" s="55"/>
@@ -4218,14 +4218,14 @@
       <c r="I105" s="12"/>
     </row>
     <row r="106" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="126" t="s">
+      <c r="A106" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
-      <c r="F106" s="126"/>
+      <c r="B106" s="127"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
     </row>
@@ -4244,13 +4244,13 @@
         <v>88</v>
       </c>
       <c r="B108" s="65"/>
-      <c r="C108" s="130" t="s">
+      <c r="C108" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D108" s="131"/>
-      <c r="E108" s="131"/>
-      <c r="F108" s="131"/>
-      <c r="G108" s="132"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
+      <c r="G108" s="131"/>
       <c r="H108" s="15"/>
       <c r="I108" s="12"/>
     </row>
@@ -4343,15 +4343,15 @@
       <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="135" t="s">
+      <c r="A115" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="135"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135"/>
-      <c r="E115" s="135"/>
-      <c r="F115" s="135"/>
-      <c r="G115" s="135"/>
+      <c r="B115" s="134"/>
+      <c r="C115" s="134"/>
+      <c r="D115" s="134"/>
+      <c r="E115" s="134"/>
+      <c r="F115" s="134"/>
+      <c r="G115" s="134"/>
       <c r="H115" s="15"/>
     </row>
     <row r="116" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,14 +4415,14 @@
       <c r="H121" s="15"/>
     </row>
     <row r="122" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="147"/>
-      <c r="B122" s="147"/>
-      <c r="C122" s="147"/>
-      <c r="D122" s="147"/>
-      <c r="E122" s="147"/>
-      <c r="F122" s="147"/>
-      <c r="G122" s="147"/>
-      <c r="H122" s="147"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="118"/>
+      <c r="G122" s="118"/>
+      <c r="H122" s="118"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
@@ -4438,26 +4438,26 @@
       <c r="H123" s="15"/>
     </row>
     <row r="124" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="149" t="s">
-        <v>102</v>
-      </c>
-      <c r="B124" s="149"/>
-      <c r="C124" s="149"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
-      <c r="F124" s="149"/>
-      <c r="G124" s="149"/>
-      <c r="H124" s="149"/>
+      <c r="A124" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="104"/>
+      <c r="F124" s="104"/>
+      <c r="G124" s="104"/>
+      <c r="H124" s="104"/>
     </row>
     <row r="125" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="149"/>
-      <c r="B125" s="149"/>
-      <c r="C125" s="149"/>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
-      <c r="F125" s="149"/>
-      <c r="G125" s="149"/>
-      <c r="H125" s="149"/>
+      <c r="A125" s="104"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="104"/>
+      <c r="G125" s="104"/>
+      <c r="H125" s="104"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -4473,16 +4473,16 @@
       <c r="H126" s="15"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="B127" s="127"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
-      <c r="F127" s="127"/>
-      <c r="G127" s="127"/>
-      <c r="H127" s="127"/>
+      <c r="A127" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="128"/>
+      <c r="C127" s="128"/>
+      <c r="D127" s="128"/>
+      <c r="E127" s="128"/>
+      <c r="F127" s="128"/>
+      <c r="G127" s="128"/>
+      <c r="H127" s="128"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -4616,18 +4616,18 @@
       <c r="A134" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B134" s="139" t="s">
+      <c r="B134" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="140"/>
-      <c r="D134" s="139" t="s">
+      <c r="C134" s="117"/>
+      <c r="D134" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="140"/>
-      <c r="F134" s="139" t="s">
+      <c r="E134" s="117"/>
+      <c r="F134" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="140"/>
+      <c r="G134" s="117"/>
       <c r="H134" s="15"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -4720,32 +4720,32 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="45"/>
-      <c r="B138" s="144" t="s">
+      <c r="B138" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
-      <c r="E138" s="144"/>
-      <c r="F138" s="144"/>
-      <c r="G138" s="144"/>
+      <c r="C138" s="120"/>
+      <c r="D138" s="120"/>
+      <c r="E138" s="120"/>
+      <c r="F138" s="120"/>
+      <c r="G138" s="120"/>
       <c r="H138" s="15"/>
     </row>
     <row r="139" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="139" t="s">
+      <c r="B139" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="140"/>
-      <c r="D139" s="139" t="s">
+      <c r="C139" s="117"/>
+      <c r="D139" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="140"/>
-      <c r="F139" s="139" t="s">
+      <c r="E139" s="117"/>
+      <c r="F139" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="140"/>
+      <c r="G139" s="117"/>
       <c r="H139" s="15"/>
     </row>
     <row r="140" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,32 +4786,32 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="45"/>
-      <c r="B143" s="144" t="s">
+      <c r="B143" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C143" s="144"/>
-      <c r="D143" s="144"/>
-      <c r="E143" s="144"/>
-      <c r="F143" s="144"/>
-      <c r="G143" s="144"/>
+      <c r="C143" s="120"/>
+      <c r="D143" s="120"/>
+      <c r="E143" s="120"/>
+      <c r="F143" s="120"/>
+      <c r="G143" s="120"/>
       <c r="H143" s="15"/>
     </row>
     <row r="144" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B144" s="139" t="s">
+      <c r="B144" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="140"/>
-      <c r="D144" s="139" t="s">
+      <c r="C144" s="117"/>
+      <c r="D144" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E144" s="140"/>
-      <c r="F144" s="139" t="s">
+      <c r="E144" s="117"/>
+      <c r="F144" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G144" s="140"/>
+      <c r="G144" s="117"/>
       <c r="H144" s="15"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4874,32 +4874,32 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="77"/>
-      <c r="B150" s="144" t="s">
+      <c r="B150" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="144"/>
-      <c r="D150" s="144"/>
-      <c r="E150" s="144"/>
-      <c r="F150" s="144"/>
-      <c r="G150" s="144"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="120"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="120"/>
+      <c r="G150" s="120"/>
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B151" s="139" t="s">
+      <c r="B151" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="140"/>
-      <c r="D151" s="139" t="s">
+      <c r="C151" s="117"/>
+      <c r="D151" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="140"/>
-      <c r="F151" s="139" t="s">
+      <c r="E151" s="117"/>
+      <c r="F151" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="140"/>
+      <c r="G151" s="117"/>
       <c r="H151" s="15"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4962,32 +4962,32 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="81"/>
-      <c r="B157" s="144" t="s">
+      <c r="B157" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C157" s="144"/>
-      <c r="D157" s="144"/>
-      <c r="E157" s="144"/>
-      <c r="F157" s="144"/>
-      <c r="G157" s="144"/>
+      <c r="C157" s="120"/>
+      <c r="D157" s="120"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
+      <c r="G157" s="120"/>
       <c r="H157" s="15"/>
     </row>
     <row r="158" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="139" t="s">
+      <c r="B158" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="140"/>
-      <c r="D158" s="139" t="s">
+      <c r="C158" s="117"/>
+      <c r="D158" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E158" s="140"/>
-      <c r="F158" s="139" t="s">
+      <c r="E158" s="117"/>
+      <c r="F158" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="140"/>
+      <c r="G158" s="117"/>
       <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5114,12 +5114,12 @@
       <c r="A169" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B169" s="142"/>
-      <c r="C169" s="143"/>
-      <c r="D169" s="142"/>
-      <c r="E169" s="143"/>
-      <c r="F169" s="142"/>
-      <c r="G169" s="143"/>
+      <c r="B169" s="123"/>
+      <c r="C169" s="124"/>
+      <c r="D169" s="123"/>
+      <c r="E169" s="124"/>
+      <c r="F169" s="123"/>
+      <c r="G169" s="124"/>
       <c r="H169" s="15"/>
     </row>
     <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -5135,16 +5135,16 @@
       <c r="H170" s="91"/>
     </row>
     <row r="171" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="B171" s="148"/>
-      <c r="C171" s="148"/>
-      <c r="D171" s="148"/>
-      <c r="E171" s="148"/>
-      <c r="F171" s="148"/>
-      <c r="G171" s="148"/>
-      <c r="H171" s="148"/>
+      <c r="A171" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171" s="119"/>
+      <c r="C171" s="119"/>
+      <c r="D171" s="119"/>
+      <c r="E171" s="119"/>
+      <c r="F171" s="119"/>
+      <c r="G171" s="119"/>
+      <c r="H171" s="119"/>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
@@ -5159,48 +5159,48 @@
       <c r="H172" s="95"/>
     </row>
     <row r="173" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="B173" s="141"/>
-      <c r="C173" s="141"/>
-      <c r="D173" s="141"/>
-      <c r="E173" s="141"/>
-      <c r="F173" s="141"/>
-      <c r="G173" s="141"/>
-      <c r="H173" s="141"/>
+      <c r="A173" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" s="122"/>
+      <c r="C173" s="122"/>
+      <c r="D173" s="122"/>
+      <c r="E173" s="122"/>
+      <c r="F173" s="122"/>
+      <c r="G173" s="122"/>
+      <c r="H173" s="122"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="B174" s="138"/>
-      <c r="C174" s="138"/>
-      <c r="D174" s="138"/>
-      <c r="E174" s="138"/>
-      <c r="F174" s="138"/>
-      <c r="G174" s="138"/>
-      <c r="H174" s="138"/>
+      <c r="A174" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" s="121"/>
+      <c r="C174" s="121"/>
+      <c r="D174" s="121"/>
+      <c r="E174" s="121"/>
+      <c r="F174" s="121"/>
+      <c r="G174" s="121"/>
+      <c r="H174" s="121"/>
     </row>
     <row r="175" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="138"/>
-      <c r="B175" s="138"/>
-      <c r="C175" s="138"/>
-      <c r="D175" s="138"/>
-      <c r="E175" s="138"/>
-      <c r="F175" s="138"/>
-      <c r="G175" s="138"/>
-      <c r="H175" s="138"/>
+      <c r="A175" s="121"/>
+      <c r="B175" s="121"/>
+      <c r="C175" s="121"/>
+      <c r="D175" s="121"/>
+      <c r="E175" s="121"/>
+      <c r="F175" s="121"/>
+      <c r="G175" s="121"/>
+      <c r="H175" s="121"/>
     </row>
     <row r="176" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="138"/>
-      <c r="B176" s="138"/>
-      <c r="C176" s="138"/>
-      <c r="D176" s="138"/>
-      <c r="E176" s="138"/>
-      <c r="F176" s="138"/>
-      <c r="G176" s="138"/>
-      <c r="H176" s="138"/>
+      <c r="A176" s="121"/>
+      <c r="B176" s="121"/>
+      <c r="C176" s="121"/>
+      <c r="D176" s="121"/>
+      <c r="E176" s="121"/>
+      <c r="F176" s="121"/>
+      <c r="G176" s="121"/>
+      <c r="H176" s="121"/>
     </row>
     <row r="177" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
@@ -5284,6 +5284,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A174:H176"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A173:H173"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A171:H171"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A70:H71"/>
@@ -5300,91 +5377,14 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="A122:H122"/>
-    <mergeCell ref="A171:H171"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A174:H176"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="A173:H173"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A127:H127"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="54" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;6&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;6AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"-,Bold"&amp;5&amp;K0033CCControl de versiones&amp;"-,Regular"&amp;K01+000
-Circular ASFI/476/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+    <oddFooter>&amp;L&amp;"-,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"-,Normal"&amp;K01+000
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 2
